--- a/www/IndicatorsPerCountry/Uruguay_GDPperCapita_TerritorialRef_1946_2012_CCode_858.xlsx
+++ b/www/IndicatorsPerCountry/Uruguay_GDPperCapita_TerritorialRef_1946_2012_CCode_858.xlsx
@@ -501,13 +501,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Uruguay_GDPperCapita_TerritorialRef_1946_2012_CCode_858.xlsx
+++ b/www/IndicatorsPerCountry/Uruguay_GDPperCapita_TerritorialRef_1946_2012_CCode_858.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="123">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,442 +36,316 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1085.8056998</t>
+    <t>1838</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1164.52661304</t>
-  </si>
-  <si>
-    <t>1467.58763022</t>
-  </si>
-  <si>
-    <t>1788.98113209</t>
-  </si>
-  <si>
-    <t>2180.75801749</t>
-  </si>
-  <si>
-    <t>2177.96610169</t>
-  </si>
-  <si>
-    <t>2631.86813187</t>
-  </si>
-  <si>
-    <t>2601.06382979</t>
-  </si>
-  <si>
-    <t>2315.24547804</t>
-  </si>
-  <si>
-    <t>1942.35588972</t>
-  </si>
-  <si>
-    <t>2104.62287105</t>
-  </si>
-  <si>
-    <t>2122.64150943</t>
-  </si>
-  <si>
-    <t>2247.1395881</t>
-  </si>
-  <si>
-    <t>1948.88888889</t>
-  </si>
-  <si>
-    <t>2081.89655172</t>
-  </si>
-  <si>
-    <t>1931.53526971</t>
-  </si>
-  <si>
-    <t>2079.6812749</t>
-  </si>
-  <si>
-    <t>2396.55172414</t>
-  </si>
-  <si>
-    <t>2324.1252302</t>
-  </si>
-  <si>
-    <t>2569.14893617</t>
-  </si>
-  <si>
-    <t>2608.17717206</t>
-  </si>
-  <si>
-    <t>2267.21311475</t>
-  </si>
-  <si>
-    <t>2718.11023622</t>
-  </si>
-  <si>
-    <t>2415.15151515</t>
-  </si>
-  <si>
-    <t>2147.2303207</t>
-  </si>
-  <si>
-    <t>2290.36827195</t>
-  </si>
-  <si>
-    <t>2294.36038514</t>
-  </si>
-  <si>
-    <t>2437.1657754</t>
-  </si>
-  <si>
-    <t>2657.14285714</t>
-  </si>
-  <si>
-    <t>2568.18181818</t>
-  </si>
-  <si>
-    <t>2644.17177914</t>
-  </si>
-  <si>
-    <t>2493.44457688</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2260.96737908</t>
-  </si>
-  <si>
-    <t>2218.57923497</t>
-  </si>
-  <si>
-    <t>2233.33333333</t>
-  </si>
-  <si>
-    <t>2572.48677249</t>
-  </si>
-  <si>
-    <t>2614.98439126</t>
-  </si>
-  <si>
-    <t>2639.71340839</t>
-  </si>
-  <si>
-    <t>2334.34038268</t>
-  </si>
-  <si>
-    <t>2533.2011893</t>
-  </si>
-  <si>
-    <t>2757.30994152</t>
-  </si>
-  <si>
-    <t>2973.15436242</t>
-  </si>
-  <si>
-    <t>2956.68549906</t>
-  </si>
-  <si>
-    <t>3135.98519889</t>
-  </si>
-  <si>
-    <t>2956.83453237</t>
-  </si>
-  <si>
-    <t>3507.86713287</t>
-  </si>
-  <si>
-    <t>3310.1104503</t>
-  </si>
-  <si>
-    <t>2654.12919052</t>
-  </si>
-  <si>
-    <t>2470.30497592</t>
-  </si>
-  <si>
-    <t>2508.27423168</t>
-  </si>
-  <si>
-    <t>2717.49226006</t>
-  </si>
-  <si>
-    <t>2827.50759878</t>
-  </si>
-  <si>
-    <t>3134.97390007</t>
-  </si>
-  <si>
-    <t>2673.96061269</t>
-  </si>
-  <si>
-    <t>2751.06990014</t>
-  </si>
-  <si>
-    <t>3078.1577111</t>
-  </si>
-  <si>
-    <t>3169.96587031</t>
-  </si>
-  <si>
-    <t>3397.19626168</t>
-  </si>
-  <si>
-    <t>3187.74445893</t>
-  </si>
-  <si>
-    <t>3397.83577339</t>
-  </si>
-  <si>
-    <t>3797.26368159</t>
-  </si>
-  <si>
-    <t>3905.83232078</t>
-  </si>
-  <si>
-    <t>3847.47774481</t>
-  </si>
-  <si>
-    <t>4301.22591944</t>
-  </si>
-  <si>
-    <t>3500.28719127</t>
-  </si>
-  <si>
-    <t>3196.04519774</t>
-  </si>
-  <si>
-    <t>2750.41689828</t>
-  </si>
-  <si>
-    <t>3220.88572991</t>
-  </si>
-  <si>
-    <t>3355.56750941</t>
-  </si>
-  <si>
-    <t>3458.97300159</t>
-  </si>
-  <si>
-    <t>3462.25923998</t>
-  </si>
-  <si>
-    <t>3676.2295082</t>
-  </si>
-  <si>
-    <t>3691.87242798</t>
-  </si>
-  <si>
-    <t>3660.55979644</t>
-  </si>
-  <si>
-    <t>3682.43583291</t>
-  </si>
-  <si>
-    <t>3337.81094527</t>
-  </si>
-  <si>
-    <t>3330.70866142</t>
-  </si>
-  <si>
-    <t>3704.62287105</t>
-  </si>
-  <si>
-    <t>3763.57520423</t>
-  </si>
-  <si>
-    <t>4083.05647841</t>
-  </si>
-  <si>
-    <t>4312.55857545</t>
-  </si>
-  <si>
-    <t>4405.09259259</t>
-  </si>
-  <si>
-    <t>4503.65630713</t>
-  </si>
-  <si>
-    <t>4659.39775097</t>
-  </si>
-  <si>
-    <t>4954.88200948</t>
-  </si>
-  <si>
-    <t>4956.57944087</t>
-  </si>
-  <si>
-    <t>5138.53374899</t>
-  </si>
-  <si>
-    <t>5390.79136455</t>
-  </si>
-  <si>
-    <t>5351.58188902</t>
-  </si>
-  <si>
-    <t>5360.16975754</t>
-  </si>
-  <si>
-    <t>5332.8736692</t>
-  </si>
-  <si>
-    <t>5402.34944487</t>
-  </si>
-  <si>
-    <t>4859.67658802</t>
-  </si>
-  <si>
-    <t>4960.15557678</t>
-  </si>
-  <si>
-    <t>5036.28606667</t>
-  </si>
-  <si>
-    <t>4858.25098346</t>
-  </si>
-  <si>
-    <t>4819.70555193</t>
-  </si>
-  <si>
-    <t>4858.06856109</t>
-  </si>
-  <si>
-    <t>4859.76741587</t>
-  </si>
-  <si>
-    <t>4974.26325891</t>
-  </si>
-  <si>
-    <t>4720.62109184</t>
-  </si>
-  <si>
-    <t>4747.16083335</t>
-  </si>
-  <si>
-    <t>4990.97206533</t>
-  </si>
-  <si>
-    <t>5184.0537402</t>
-  </si>
-  <si>
-    <t>5130.1431472</t>
-  </si>
-  <si>
-    <t>4944.99785476</t>
-  </si>
-  <si>
-    <t>4974.39235881</t>
-  </si>
-  <si>
-    <t>5123.29412909</t>
-  </si>
-  <si>
-    <t>5417.01828411</t>
-  </si>
-  <si>
-    <t>5601.5379238</t>
-  </si>
-  <si>
-    <t>5628.69051754</t>
-  </si>
-  <si>
-    <t>5888.16016569</t>
-  </si>
-  <si>
-    <t>6214.82498284</t>
-  </si>
-  <si>
-    <t>6554.60750853</t>
-  </si>
-  <si>
-    <t>6873.24438202</t>
-  </si>
-  <si>
-    <t>5971.69811321</t>
-  </si>
-  <si>
-    <t>5583.1381733</t>
-  </si>
-  <si>
-    <t>5487.03457447</t>
-  </si>
-  <si>
-    <t>5559.76095618</t>
-  </si>
-  <si>
-    <t>6014.84658529</t>
-  </si>
-  <si>
-    <t>6453.26336504</t>
-  </si>
-  <si>
-    <t>6413.29856584</t>
-  </si>
-  <si>
-    <t>6454.01554404</t>
-  </si>
-  <si>
-    <t>6464.63022508</t>
-  </si>
-  <si>
-    <t>6664.04584307</t>
-  </si>
-  <si>
-    <t>7163.18670633</t>
-  </si>
-  <si>
-    <t>7324.36337539</t>
-  </si>
-  <si>
-    <t>7824.62930814</t>
-  </si>
-  <si>
-    <t>7679.49739407</t>
-  </si>
-  <si>
-    <t>8071.73491846</t>
-  </si>
-  <si>
-    <t>8434.43169982</t>
-  </si>
-  <si>
-    <t>8775.83263494</t>
-  </si>
-  <si>
-    <t>8494.07202627</t>
-  </si>
-  <si>
-    <t>8340.85699497</t>
-  </si>
-  <si>
-    <t>8030.07444931</t>
-  </si>
-  <si>
-    <t>7121.27341833</t>
-  </si>
-  <si>
-    <t>7255.8844263</t>
-  </si>
-  <si>
-    <t>8094.06499734</t>
-  </si>
-  <si>
-    <t>8613.14394227</t>
-  </si>
-  <si>
-    <t>8968.14436772</t>
-  </si>
-  <si>
-    <t>9603.64623199</t>
-  </si>
-  <si>
-    <t>10405.4417908</t>
-  </si>
-  <si>
-    <t>10650.0950207</t>
-  </si>
-  <si>
-    <t>11526.3274935</t>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3677</t>
+  </si>
+  <si>
+    <t>4305</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>3918</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>3435</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3096</t>
+  </si>
+  <si>
+    <t>3387</t>
+  </si>
+  <si>
+    <t>3967</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>4355</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>4595</t>
+  </si>
+  <si>
+    <t>4112</t>
+  </si>
+  <si>
+    <t>3628</t>
+  </si>
+  <si>
+    <t>4160</t>
+  </si>
+  <si>
+    <t>4063</t>
+  </si>
+  <si>
+    <t>4015</t>
+  </si>
+  <si>
+    <t>3822</t>
+  </si>
+  <si>
+    <t>5176</t>
+  </si>
+  <si>
+    <t>4838</t>
+  </si>
+  <si>
+    <t>3773</t>
+  </si>
+  <si>
+    <t>3580</t>
+  </si>
+  <si>
+    <t>4258</t>
+  </si>
+  <si>
+    <t>4208</t>
+  </si>
+  <si>
+    <t>4548</t>
+  </si>
+  <si>
+    <t>5080</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>5950</t>
+  </si>
+  <si>
+    <t>4450</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>4790</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>5273</t>
+  </si>
+  <si>
+    <t>5322</t>
+  </si>
+  <si>
+    <t>4983</t>
+  </si>
+  <si>
+    <t>5225</t>
+  </si>
+  <si>
+    <t>5418</t>
+  </si>
+  <si>
+    <t>5903</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>5853</t>
+  </si>
+  <si>
+    <t>6531</t>
+  </si>
+  <si>
+    <t>7015</t>
+  </si>
+  <si>
+    <t>7548</t>
+  </si>
+  <si>
+    <t>7353</t>
+  </si>
+  <si>
+    <t>8030</t>
+  </si>
+  <si>
+    <t>8273</t>
+  </si>
+  <si>
+    <t>8176</t>
+  </si>
+  <si>
+    <t>8225</t>
+  </si>
+  <si>
+    <t>7788</t>
+  </si>
+  <si>
+    <t>7450</t>
+  </si>
+  <si>
+    <t>7643</t>
+  </si>
+  <si>
+    <t>7740</t>
+  </si>
+  <si>
+    <t>7498</t>
+  </si>
+  <si>
+    <t>7693</t>
+  </si>
+  <si>
+    <t>7305</t>
+  </si>
+  <si>
+    <t>7933</t>
+  </si>
+  <si>
+    <t>7885</t>
+  </si>
+  <si>
+    <t>8563</t>
+  </si>
+  <si>
+    <t>8853</t>
+  </si>
+  <si>
+    <t>8950</t>
+  </si>
+  <si>
+    <t>9483</t>
+  </si>
+  <si>
+    <t>9966</t>
+  </si>
+  <si>
+    <t>10546</t>
+  </si>
+  <si>
+    <t>10643</t>
+  </si>
+  <si>
+    <t>9578</t>
+  </si>
+  <si>
+    <t>8805</t>
+  </si>
+  <si>
+    <t>8901</t>
+  </si>
+  <si>
+    <t>9628</t>
+  </si>
+  <si>
+    <t>10305</t>
+  </si>
+  <si>
+    <t>10256</t>
+  </si>
+  <si>
+    <t>10586.4084147668</t>
+  </si>
+  <si>
+    <t>11349.542004281</t>
+  </si>
+  <si>
+    <t>11581.7046842745</t>
+  </si>
+  <si>
+    <t>12344.1501402962</t>
+  </si>
+  <si>
+    <t>12092.6388522467</t>
+  </si>
+  <si>
+    <t>12660.1626555037</t>
+  </si>
+  <si>
+    <t>13226.4777976959</t>
+  </si>
+  <si>
+    <t>13744.3211485163</t>
+  </si>
+  <si>
+    <t>13348.7562813671</t>
+  </si>
+  <si>
+    <t>13050.0639035873</t>
+  </si>
+  <si>
+    <t>12463.9190398091</t>
+  </si>
+  <si>
+    <t>11399.5807247074</t>
+  </si>
+  <si>
+    <t>11438.6861385091</t>
+  </si>
+  <si>
+    <t>11955.3094385533</t>
+  </si>
+  <si>
+    <t>12757.4986400662</t>
+  </si>
+  <si>
+    <t>13223.7807645771</t>
+  </si>
+  <si>
+    <t>13976.3925787319</t>
+  </si>
+  <si>
+    <t>14869.9266663094</t>
+  </si>
+  <si>
+    <t>15143.996123102</t>
+  </si>
+  <si>
+    <t>16415.6288317348</t>
+  </si>
+  <si>
+    <t>17211</t>
+  </si>
+  <si>
+    <t>17876</t>
+  </si>
+  <si>
+    <t>18589</t>
+  </si>
+  <si>
+    <t>19160</t>
+  </si>
+  <si>
+    <t>19244</t>
+  </si>
+  <si>
+    <t>19468</t>
   </si>
   <si>
     <t>Description</t>
@@ -1796,7 +1670,7 @@
         <v>1871.0</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1813,7 +1687,7 @@
         <v>1872.0</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1830,7 +1704,7 @@
         <v>1873.0</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -1847,7 +1721,7 @@
         <v>1874.0</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -1864,7 +1738,7 @@
         <v>1875.0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -1881,7 +1755,7 @@
         <v>1876.0</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
@@ -1898,7 +1772,7 @@
         <v>1877.0</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -1915,7 +1789,7 @@
         <v>1878.0</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -1932,7 +1806,7 @@
         <v>1879.0</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -1949,7 +1823,7 @@
         <v>1880.0</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -1966,7 +1840,7 @@
         <v>1881.0</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -1983,7 +1857,7 @@
         <v>1882.0</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -2000,7 +1874,7 @@
         <v>1883.0</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -2017,7 +1891,7 @@
         <v>1884.0</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -2034,7 +1908,7 @@
         <v>1885.0</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -2051,7 +1925,7 @@
         <v>1886.0</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -2068,7 +1942,7 @@
         <v>1887.0</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -2085,7 +1959,7 @@
         <v>1888.0</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2102,7 +1976,7 @@
         <v>1889.0</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -2119,7 +1993,7 @@
         <v>1890.0</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -2136,7 +2010,7 @@
         <v>1891.0</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -2153,7 +2027,7 @@
         <v>1892.0</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -2170,7 +2044,7 @@
         <v>1893.0</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2187,7 +2061,7 @@
         <v>1894.0</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -2204,7 +2078,7 @@
         <v>1895.0</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -2221,7 +2095,7 @@
         <v>1896.0</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -2238,7 +2112,7 @@
         <v>1897.0</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -2255,7 +2129,7 @@
         <v>1898.0</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2272,7 +2146,7 @@
         <v>1899.0</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -2289,7 +2163,7 @@
         <v>1900.0</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -2306,7 +2180,7 @@
         <v>1901.0</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
@@ -2323,7 +2197,7 @@
         <v>1902.0</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -2340,7 +2214,7 @@
         <v>1903.0</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -2357,7 +2231,7 @@
         <v>1904.0</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -2374,7 +2248,7 @@
         <v>1905.0</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -2391,7 +2265,7 @@
         <v>1906.0</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -2408,7 +2282,7 @@
         <v>1907.0</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -2425,7 +2299,7 @@
         <v>1908.0</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -2442,7 +2316,7 @@
         <v>1909.0</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -2459,7 +2333,7 @@
         <v>1910.0</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
@@ -2476,7 +2350,7 @@
         <v>1911.0</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2367,7 @@
         <v>1912.0</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -2510,7 +2384,7 @@
         <v>1913.0</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -2527,7 +2401,7 @@
         <v>1914.0</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
@@ -2544,7 +2418,7 @@
         <v>1915.0</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -2561,7 +2435,7 @@
         <v>1916.0</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -2578,7 +2452,7 @@
         <v>1917.0</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -2595,7 +2469,7 @@
         <v>1918.0</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2486,7 @@
         <v>1919.0</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -2629,7 +2503,7 @@
         <v>1920.0</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
@@ -2646,7 +2520,7 @@
         <v>1921.0</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -2663,7 +2537,7 @@
         <v>1922.0</v>
       </c>
       <c r="E124" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2554,7 @@
         <v>1923.0</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
@@ -2697,7 +2571,7 @@
         <v>1924.0</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
@@ -2714,7 +2588,7 @@
         <v>1925.0</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
@@ -2731,7 +2605,7 @@
         <v>1926.0</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129">
@@ -2748,7 +2622,7 @@
         <v>1927.0</v>
       </c>
       <c r="E129" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130">
@@ -2765,7 +2639,7 @@
         <v>1928.0</v>
       </c>
       <c r="E130" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -2782,7 +2656,7 @@
         <v>1929.0</v>
       </c>
       <c r="E131" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132">
@@ -2799,7 +2673,7 @@
         <v>1930.0</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -2816,7 +2690,7 @@
         <v>1931.0</v>
       </c>
       <c r="E133" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -2833,7 +2707,7 @@
         <v>1932.0</v>
       </c>
       <c r="E134" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135">
@@ -2850,7 +2724,7 @@
         <v>1933.0</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
@@ -2867,7 +2741,7 @@
         <v>1934.0</v>
       </c>
       <c r="E136" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
@@ -2884,7 +2758,7 @@
         <v>1935.0</v>
       </c>
       <c r="E137" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
@@ -2901,7 +2775,7 @@
         <v>1936.0</v>
       </c>
       <c r="E138" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
@@ -2918,7 +2792,7 @@
         <v>1937.0</v>
       </c>
       <c r="E139" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140">
@@ -2935,7 +2809,7 @@
         <v>1938.0</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
@@ -2952,7 +2826,7 @@
         <v>1939.0</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142">
@@ -2969,7 +2843,7 @@
         <v>1940.0</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143">
@@ -2986,7 +2860,7 @@
         <v>1941.0</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144">
@@ -3003,7 +2877,7 @@
         <v>1942.0</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
@@ -3020,7 +2894,7 @@
         <v>1943.0</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146">
@@ -3037,7 +2911,7 @@
         <v>1944.0</v>
       </c>
       <c r="E146" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147">
@@ -3054,7 +2928,7 @@
         <v>1945.0</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148">
@@ -3071,7 +2945,7 @@
         <v>1946.0</v>
       </c>
       <c r="E148" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
@@ -3088,7 +2962,7 @@
         <v>1947.0</v>
       </c>
       <c r="E149" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150">
@@ -3105,7 +2979,7 @@
         <v>1948.0</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151">
@@ -3122,7 +2996,7 @@
         <v>1949.0</v>
       </c>
       <c r="E151" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152">
@@ -3139,7 +3013,7 @@
         <v>1950.0</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153">
@@ -3156,7 +3030,7 @@
         <v>1951.0</v>
       </c>
       <c r="E153" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154">
@@ -3173,7 +3047,7 @@
         <v>1952.0</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155">
@@ -3190,7 +3064,7 @@
         <v>1953.0</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156">
@@ -3207,7 +3081,7 @@
         <v>1954.0</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157">
@@ -3224,7 +3098,7 @@
         <v>1955.0</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158">
@@ -3241,7 +3115,7 @@
         <v>1956.0</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159">
@@ -3258,7 +3132,7 @@
         <v>1957.0</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160">
@@ -3275,7 +3149,7 @@
         <v>1958.0</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161">
@@ -3292,7 +3166,7 @@
         <v>1959.0</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162">
@@ -3309,7 +3183,7 @@
         <v>1960.0</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163">
@@ -3326,7 +3200,7 @@
         <v>1961.0</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164">
@@ -3343,7 +3217,7 @@
         <v>1962.0</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165">
@@ -3360,7 +3234,7 @@
         <v>1963.0</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166">
@@ -3377,7 +3251,7 @@
         <v>1964.0</v>
       </c>
       <c r="E166" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167">
@@ -3394,7 +3268,7 @@
         <v>1965.0</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168">
@@ -3411,7 +3285,7 @@
         <v>1966.0</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169">
@@ -3428,7 +3302,7 @@
         <v>1967.0</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170">
@@ -3445,7 +3319,7 @@
         <v>1968.0</v>
       </c>
       <c r="E170" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171">
@@ -3462,7 +3336,7 @@
         <v>1969.0</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172">
@@ -3479,7 +3353,7 @@
         <v>1970.0</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173">
@@ -3496,7 +3370,7 @@
         <v>1971.0</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174">
@@ -3513,7 +3387,7 @@
         <v>1972.0</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175">
@@ -3530,7 +3404,7 @@
         <v>1973.0</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176">
@@ -3547,7 +3421,7 @@
         <v>1974.0</v>
       </c>
       <c r="E176" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177">
@@ -3564,7 +3438,7 @@
         <v>1975.0</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178">
@@ -3581,7 +3455,7 @@
         <v>1976.0</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179">
@@ -3598,7 +3472,7 @@
         <v>1977.0</v>
       </c>
       <c r="E179" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="180">
@@ -3615,7 +3489,7 @@
         <v>1978.0</v>
       </c>
       <c r="E180" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
@@ -3632,7 +3506,7 @@
         <v>1979.0</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182">
@@ -3649,7 +3523,7 @@
         <v>1980.0</v>
       </c>
       <c r="E182" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183">
@@ -3666,7 +3540,7 @@
         <v>1981.0</v>
       </c>
       <c r="E183" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184">
@@ -3683,7 +3557,7 @@
         <v>1982.0</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185">
@@ -3700,7 +3574,7 @@
         <v>1983.0</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186">
@@ -3717,7 +3591,7 @@
         <v>1984.0</v>
       </c>
       <c r="E186" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187">
@@ -3734,7 +3608,7 @@
         <v>1985.0</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188">
@@ -3751,7 +3625,7 @@
         <v>1986.0</v>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189">
@@ -3768,7 +3642,7 @@
         <v>1987.0</v>
       </c>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190">
@@ -3785,7 +3659,7 @@
         <v>1988.0</v>
       </c>
       <c r="E190" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191">
@@ -3802,7 +3676,7 @@
         <v>1989.0</v>
       </c>
       <c r="E191" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="192">
@@ -3819,7 +3693,7 @@
         <v>1990.0</v>
       </c>
       <c r="E192" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="193">
@@ -3836,7 +3710,7 @@
         <v>1991.0</v>
       </c>
       <c r="E193" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194">
@@ -3853,7 +3727,7 @@
         <v>1992.0</v>
       </c>
       <c r="E194" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195">
@@ -3870,7 +3744,7 @@
         <v>1993.0</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196">
@@ -3887,7 +3761,7 @@
         <v>1994.0</v>
       </c>
       <c r="E196" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197">
@@ -3904,7 +3778,7 @@
         <v>1995.0</v>
       </c>
       <c r="E197" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="198">
@@ -3921,7 +3795,7 @@
         <v>1996.0</v>
       </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199">
@@ -3938,7 +3812,7 @@
         <v>1997.0</v>
       </c>
       <c r="E199" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200">
@@ -3955,7 +3829,7 @@
         <v>1998.0</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201">
@@ -3972,7 +3846,7 @@
         <v>1999.0</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202">
@@ -3989,7 +3863,7 @@
         <v>2000.0</v>
       </c>
       <c r="E202" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="203">
@@ -4006,7 +3880,7 @@
         <v>2001.0</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="204">
@@ -4023,7 +3897,7 @@
         <v>2002.0</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205">
@@ -4040,7 +3914,7 @@
         <v>2003.0</v>
       </c>
       <c r="E205" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206">
@@ -4057,7 +3931,7 @@
         <v>2004.0</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207">
@@ -4074,7 +3948,7 @@
         <v>2005.0</v>
       </c>
       <c r="E207" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208">
@@ -4091,7 +3965,7 @@
         <v>2006.0</v>
       </c>
       <c r="E208" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209">
@@ -4108,7 +3982,7 @@
         <v>2007.0</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210">
@@ -4125,7 +3999,7 @@
         <v>2008.0</v>
       </c>
       <c r="E210" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211">
@@ -4142,7 +4016,7 @@
         <v>2009.0</v>
       </c>
       <c r="E211" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212">
@@ -4159,7 +4033,109 @@
         <v>2010.0</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4177,50 +4153,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
